--- a/biology/Histoire de la zoologie et de la botanique/Anton_Ausserer/Anton_Ausserer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Anton_Ausserer/Anton_Ausserer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anton Ausserer est un naturaliste autrichien spécialiste des araignées, né le 5 juillet 1843 à Bozen dans le Tyrol et mort le 20 juillet 1889 à Graz d'une bronchite.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Passionné dès son jeune âge par l'histoire naturelle mais orphelin à 15 ans, il réussit à continuer ses études en donnant des cours particuliers. En 1863, il devient le protégé du professeur Heller qui l'incite à étudier les araignées. Il remporte un concours d'histoire naturelle, ce qui lui permet de poursuivre un peu plus confortablement ses études.
 Il devient professeur à Feldkirch en 1867 puis, en 1869, à Innsbruck. Là, il participe à la vie de la société d'histoire naturelle de la ville et devient son secrétaire.
@@ -546,7 +560,9 @@
           <t>Publications sélectionnées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1867. "Die Arachniden Tirols nach ihrer horizontalen und verticalen Verbreitung, 1." Verhandlungen der kaiserlich-königlichen zoologisch-botanischen Gesellschaft. Wien, 17:137–170.
 1871. "Beiträge zur Kenntniss der Arachniden-Familie der Territelariae Thorell (Mygalidae Autor)". Verhandlungen der kaiserlich-königlichen zoologisch-botanischen Gesellschaft. Wien, 21:184-187.
